--- a/NPI_TEMPLATE_FILL_Test.xlsx
+++ b/NPI_TEMPLATE_FILL_Test.xlsx
@@ -8,15 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arrowelectronics-my.sharepoint.com/personal/danielarmando_aguirre_arrow_com/Documents/Documents/Arrow/Internal Jobs/NPI_Gen/NPI Generator Tool v15/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="11_9ADC846703E6E773C85D849BDC24C6F4FDBD5415" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F279D56-B977-4F0A-BB1E-151280F43874}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{2AFB9A13-157B-402D-BF4B-356A49DF65A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6193BC42-D2A1-4FFC-A278-EFDBED7EAE2B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE_1_FILL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -24,8 +34,342 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2CFFBEB8-D65D-416F-A0BE-A7BFDEC7D6E9}</author>
+    <author>tc={6825FBDF-E3D4-4313-89B5-B4F848AE1596}</author>
+    <author>tc={DF2EB395-D6BB-4872-A9D5-44899268FAEC}</author>
+    <author>tc={2169F9EE-2963-4C3A-96E1-7D4B067A65EE}</author>
+    <author>tc={D441A4D3-ED8C-4E49-B6B1-DD5BE7EF743F}</author>
+    <author>tc={17051D67-A141-4E08-8A45-09100DD93E1D}</author>
+    <author>tc={BCBDA6F6-5FDB-468A-89EC-DA9079E79AE5}</author>
+    <author>tc={BFBC4FFA-3327-4B29-8F94-D9AD839F01C5}</author>
+    <author>tc={B583804B-0F09-40F7-BAF7-CB008A4039C4}</author>
+    <author>tc={B415D63C-7C5A-4D4D-A934-C926BA023579}</author>
+    <author>tc={525B5A85-25A3-4CB4-B13A-9896B58DDAC0}</author>
+    <author>tc={E11F243E-C009-4DD5-BF74-70BA54144960}</author>
+    <author>tc={5F492232-0C70-44EA-B461-A8DC84F625F6}</author>
+    <author>tc={E0BF33BA-391F-41B6-B7E3-3493B6C32067}</author>
+    <author>tc={BABCF6AF-C73B-4352-99CE-833E8821F5E3}</author>
+    <author>tc={6E5245F0-A0B4-47DF-9367-E45DA52543A1}</author>
+    <author>tc={37F4E663-1072-411F-9E46-B3EA20AE7A83}</author>
+    <author>tc={BF9CBB98-4DD8-47AB-BF5A-643DD7B05DCB}</author>
+    <author>tc={5188F248-C55E-4E9C-9FD0-872824093507}</author>
+    <author>tc={FF6AC938-1EAC-44C5-AEB7-FFD307DF1D2A}</author>
+    <author>tc={5748038D-9E13-446A-A848-ED4F5448F3F2}</author>
+    <author>tc={69855F5D-9FBE-4989-94D7-CE69F041B6F6}</author>
+    <author>tc={FD828F39-7ED8-4A15-B4A2-23A71925CB28}</author>
+    <author>tc={5B989B68-BD62-4293-B35A-B842D92AA3DF}</author>
+    <author>tc={705802AF-8794-4CD3-8751-51AF750B2962}</author>
+    <author>tc={58598B64-3539-4092-B321-1D15B8BBE6B3}</author>
+    <author>tc={786AC876-8E27-4431-9428-CD58BC87C546}</author>
+    <author>tc={C4824800-0B1F-4A80-BEE4-F0409E8D1520}</author>
+    <author>tc={EC269B3D-010F-491D-B221-3D0AD79E2839}</author>
+    <author>tc={BB5424C7-C0D6-4FCC-9D6A-AD8FDA640A15}</author>
+    <author>tc={3DF874D2-3055-4C24-A62D-31AAA9874EF6}</author>
+    <author>tc={EAD530D6-F3BC-429C-BAE4-D0BE0EBBF07E}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2CFFBEB8-D65D-416F-A0BE-A7BFDEC7D6E9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    RFU</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{6825FBDF-E3D4-4313-89B5-B4F848AE1596}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    RFU
+Reply:
+    &lt;New implementation&gt;
+ Selects the template number.
+Only number (at this moment)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{DF2EB395-D6BB-4872-A9D5-44899268FAEC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    RFU</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{2169F9EE-2963-4C3A-96E1-7D4B067A65EE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Selects the background image of the first slide.
+Value on cell has to be name of image + file format.
+i.e. image.png
+File formats available *.png, *.jpg, *.svg</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{D441A4D3-ED8C-4E49-B6B1-DD5BE7EF743F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Part number of the NPI</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="5" shapeId="0" xr:uid="{17051D67-A141-4E08-8A45-09100DD93E1D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Supplier of the NPI</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="6" shapeId="0" xr:uid="{BCBDA6F6-5FDB-468A-89EC-DA9079E79AE5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Title for all slides inside template</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="7" shapeId="0" xr:uid="{BFBC4FFA-3327-4B29-8F94-D9AD839F01C5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Subtitle or small phrase describing the NPI</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="8" shapeId="0" xr:uid="{B583804B-0F09-40F7-BAF7-CB008A4039C4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Small introduction on NPI</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="9" shapeId="0" xr:uid="{B415D63C-7C5A-4D4D-A934-C926BA023579}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Logo of supplier.
+All in lowercase.
+i.e. supplier-logo.svg
+Format availables: *.svg</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="10" shapeId="0" xr:uid="{525B5A85-25A3-4CB4-B13A-9896B58DDAC0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Advantages or benefits of NPI</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="11" shapeId="0" xr:uid="{E11F243E-C009-4DD5-BF74-70BA54144960}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Main functionality of the NPI</t>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="12" shapeId="0" xr:uid="{5F492232-0C70-44EA-B461-A8DC84F625F6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Selects the main figure of the template
+Value on cell has to be name of image + file format.
+i.e. image.png
+File formats available *.png, *.jpg, *.svg</t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="13" shapeId="0" xr:uid="{E0BF33BA-391F-41B6-B7E3-3493B6C32067}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Selects the sub figure 1 of the template
+Value on cell has to be name of image + file format.
+i.e. image.png
+File formats available *.png, *.jpg, *.svg</t>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="14" shapeId="0" xr:uid="{BABCF6AF-C73B-4352-99CE-833E8821F5E3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Selects the sub figure 2 of the template
+Value on cell has to be name of image + file format.
+i.e. image.png
+File formats available *.png, *.jpg, *.svg</t>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="15" shapeId="0" xr:uid="{6E5245F0-A0B4-47DF-9367-E45DA52543A1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    First hyperlink regarding NPI</t>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="16" shapeId="0" xr:uid="{37F4E663-1072-411F-9E46-B3EA20AE7A83}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Text that will go on top of first hyperlink in template</t>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="17" shapeId="0" xr:uid="{BF9CBB98-4DD8-47AB-BF5A-643DD7B05DCB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Second  hyperlink regarding NPI</t>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="18" shapeId="0" xr:uid="{5188F248-C55E-4E9C-9FD0-872824093507}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Text that will go on top of second hyperlink in template</t>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="19" shapeId="0" xr:uid="{FF6AC938-1EAC-44C5-AEB7-FFD307DF1D2A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Third  hyperlink regarding NPI</t>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="20" shapeId="0" xr:uid="{5748038D-9E13-446A-A848-ED4F5448F3F2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Text that will go on top of third hyperlink in template</t>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="21" shapeId="0" xr:uid="{69855F5D-9FBE-4989-94D7-CE69F041B6F6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Applications that can be implemented with this NPI</t>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="22" shapeId="0" xr:uid="{FD828F39-7ED8-4A15-B4A2-23A71925CB28}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Selects the application figure on the template
+Value on cell has to be name of image + file format.
+i.e. image.png
+File formats available *.png, *.jpg, *.svg</t>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="23" shapeId="0" xr:uid="{5B989B68-BD62-4293-B35A-B842D92AA3DF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Selects the application figure on the template
+Value on cell has to be name of image + file format.
+i.e. image.png
+File formats available *.png, *.jpg, *.svg</t>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="24" shapeId="0" xr:uid="{705802AF-8794-4CD3-8751-51AF750B2962}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Selects the application figure on the template
+Value on cell has to be name of image + file format.
+i.e. image.png
+File formats available *.png, *.jpg, *.svg</t>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="25" shapeId="0" xr:uid="{58598B64-3539-4092-B321-1D15B8BBE6B3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Selects the application figure on the template
+Value on cell has to be name of image + file format.
+i.e. image.png
+File formats available *.png, *.jpg, *.svg</t>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="26" shapeId="0" xr:uid="{786AC876-8E27-4431-9428-CD58BC87C546}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Selects if there is going to be a table or not regarding Part Numbers
+Values available: Y, N</t>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="27" shapeId="0" xr:uid="{C4824800-0B1F-4A80-BEE4-F0409E8D1520}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    First column of Part Number Table in template.
+Fill it using rows from 3 and beyond</t>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="28" shapeId="0" xr:uid="{EC269B3D-010F-491D-B221-3D0AD79E2839}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Embedded Hyperlink in first column text.
+Fill it using rows from 4 and beyond. If a blank space is needed, insert characters in EmptySpace cell (Z4)</t>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="29" shapeId="0" xr:uid="{BB5424C7-C0D6-4FCC-9D6A-AD8FDA640A15}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Second column of Part Number Table in template.
+Fill it using rows from 3 and beyond</t>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="30" shapeId="0" xr:uid="{3DF874D2-3055-4C24-A62D-31AAA9874EF6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Third column of Part Number Table in template.
+Fill it using rows from 3 and beyond</t>
+      </text>
+    </comment>
+    <comment ref="AF1" authorId="31" shapeId="0" xr:uid="{EAD530D6-F3BC-429C-BAE4-D0BE0EBBF07E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Embedded Hyperlink in third column text.
+Fill it using rows from 4 and beyond. If a blank space is needed, insert characters in EmptySpace cell (Z4)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>#</t>
   </si>
@@ -63,12 +407,6 @@
     <t>MainFuncText</t>
   </si>
   <si>
-    <t>MainImage</t>
-  </si>
-  <si>
-    <t>PageLink</t>
-  </si>
-  <si>
     <t>ApplicationText</t>
   </si>
   <si>
@@ -84,21 +422,9 @@
     <t>AppImage4</t>
   </si>
   <si>
-    <t>Infineon</t>
-  </si>
-  <si>
-    <t>bg.png</t>
-  </si>
-  <si>
     <t>OPNTable</t>
   </si>
   <si>
-    <t>OPNTableDescription</t>
-  </si>
-  <si>
-    <t>OPNTablePackage</t>
-  </si>
-  <si>
     <t>i0.png</t>
   </si>
   <si>
@@ -111,60 +437,165 @@
     <t>i3.png</t>
   </si>
   <si>
-    <t>TLE9012DQU</t>
-  </si>
-  <si>
-    <t>Li-Ion battery monitoring and balancing IC</t>
-  </si>
-  <si>
-    <t>Voltage monitoring of up to 12 battery cells connected in series</t>
+    <t>https://www.arrow.com/es-mx/products/tle9012dqu/infineon-technologies-ag</t>
+  </si>
+  <si>
+    <t>GeneralDescriptionText</t>
+  </si>
+  <si>
+    <t>main.png</t>
+  </si>
+  <si>
+    <t>Micron</t>
+  </si>
+  <si>
+    <t>SSD with NVMe</t>
+  </si>
+  <si>
+    <t>The World's Most Advanced 176-Layer NAND Data Center SSD</t>
+  </si>
+  <si>
+    <t>The Micron® 7450 SSD with NVMe® enables a wide variety of workloads for flexible deployment in hyperscale, cloud, data center, OEM and system  integrator designs.</t>
+  </si>
+  <si>
+    <t>176-layer NAND
+2ms and below QoS latency
+Capacity, form factor and security options fit a wide variety of data center workloads
+Multi-faceted protection for a wide variety of threats</t>
+  </si>
+  <si>
+    <t>Designed as a mainstream solution, the 7450 SSD balances performance and density. Our offering includes a PCIe Gen4, M.2, 22 x 80mm with powerloss protection and a 7.68TB E1.S that delivers industry-leading capacity.</t>
+  </si>
+  <si>
+    <t>Hyperscale cloud/data center
+Server boot use.</t>
+  </si>
+  <si>
+    <t>7450 SSD</t>
   </si>
   <si>
     <t>infineon-logo.svg</t>
   </si>
   <si>
-    <t>TLE9012DQU fulfills four main functions: cell voltage measurement, temperature measurement, cell balancing and isolated communication to main battery controller.</t>
-  </si>
-  <si>
-    <t>Hybrid Electric Vehicle (HEV)
-Plug-in Hybrid Electric Vehicle (PHEV)
-Battery Electric Vehicle (BEV)
-Mild Hybrid Electric Vehicle (MHEV)
-Home Energy Storage System</t>
-  </si>
-  <si>
-    <t>The TLE9012DQU is a multi-channel battery monitoring and balancing IC designed for Li-Ion battery packs used in many applications in the auto-motive world, industrial and consumer.</t>
-  </si>
-  <si>
-    <t>Dedicated 16-bit delta-sigma ADC for each cell with the selectable measurement mode
-High-accuracy measurement for SoC and SoH calculation
-Hot plugging support
-ISO 26262 Safety Element out of Context for safety requirements up to ASIL-D</t>
-  </si>
-  <si>
-    <t>https://www.arrow.com/es-mx/products/tle9012dqu/infineon-technologies-ag</t>
-  </si>
-  <si>
-    <t>GeneralDescriptionText</t>
+    <t>PageLink1Mask</t>
+  </si>
+  <si>
+    <t>PageLink1</t>
+  </si>
+  <si>
+    <t>PageLink2</t>
+  </si>
+  <si>
+    <t>PageLink2Mask</t>
+  </si>
+  <si>
+    <t>PageLink3</t>
+  </si>
+  <si>
+    <t>PageLink3Mask</t>
+  </si>
+  <si>
+    <t>HyperlinkMask1</t>
+  </si>
+  <si>
+    <t>HyperlinkMask2</t>
+  </si>
+  <si>
+    <t>HyperlinkMask3</t>
+  </si>
+  <si>
+    <t>OPNTableColumn1</t>
+  </si>
+  <si>
+    <t>OPNTableColumn2</t>
+  </si>
+  <si>
+    <t>OPNTableColumn3</t>
+  </si>
+  <si>
+    <t>MainFigureImage</t>
+  </si>
+  <si>
+    <t>SubFigure1Image</t>
+  </si>
+  <si>
+    <t>SubFigure2Image</t>
   </si>
   <si>
     <t>main1.png</t>
   </si>
   <si>
-    <t>TLE9012DQUXUMA1/TLE9012DQUXUMB1</t>
-  </si>
-  <si>
-    <t>Li-Ion battery monitoring and balancing IC/Li-Ion battery monitoring and balancing Ics</t>
-  </si>
-  <si>
-    <t>PG-TQFP-48/PG-TQFP-48</t>
+    <t>0.jpg</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>OPNTableColumn3Link</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Row 1</t>
+  </si>
+  <si>
+    <t>Row 2</t>
+  </si>
+  <si>
+    <t>Row 3</t>
+  </si>
+  <si>
+    <t>Row 4</t>
+  </si>
+  <si>
+    <t>Row 5</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>SAM1</t>
+  </si>
+  <si>
+    <t>SAM2</t>
+  </si>
+  <si>
+    <t>Main Function</t>
+  </si>
+  <si>
+    <t>Micro 1</t>
+  </si>
+  <si>
+    <t>Micro 2</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>OPNTableColumn1Link</t>
+  </si>
+  <si>
+    <t>Delimiter</t>
+  </si>
+  <si>
+    <t>Ow-</t>
+  </si>
+  <si>
+    <t>EmptySpace</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -191,6 +622,18 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -236,25 +679,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -339,6 +792,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Daniel Armando Aguirre" id="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" userId="S::DanielArmando.Aguirre@arrow.com::ca67ef6c-5839-4ec8-a988-1b3d44b82dea" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,178 +1095,464 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2022-06-14T15:39:08.86" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{2CFFBEB8-D65D-416F-A0BE-A7BFDEC7D6E9}">
+    <text>RFU</text>
+  </threadedComment>
+  <threadedComment ref="B1" dT="2022-06-14T15:39:16.49" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{6825FBDF-E3D4-4313-89B5-B4F848AE1596}">
+    <text>RFU</text>
+  </threadedComment>
+  <threadedComment ref="B1" dT="2022-06-16T13:43:08.79" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{0F001998-9C12-4B04-8B55-7565DF56AAA1}" parentId="{6825FBDF-E3D4-4313-89B5-B4F848AE1596}">
+    <text>&lt;New implementation&gt;
+ Selects the template number.
+Only number (at this moment)</text>
+  </threadedComment>
+  <threadedComment ref="C1" dT="2022-06-14T15:39:24.66" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{DF2EB395-D6BB-4872-A9D5-44899268FAEC}">
+    <text>RFU</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2022-06-16T13:45:46.28" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{2169F9EE-2963-4C3A-96E1-7D4B067A65EE}">
+    <text>Selects the background image of the first slide.
+Value on cell has to be name of image + file format.
+i.e. image.png
+File formats available *.png, *.jpg, *.svg</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2022-06-16T13:46:12.95" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{D441A4D3-ED8C-4E49-B6B1-DD5BE7EF743F}">
+    <text>Part number of the NPI</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2022-06-16T13:46:21.38" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{17051D67-A141-4E08-8A45-09100DD93E1D}">
+    <text>Supplier of the NPI</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2022-06-16T13:46:39.88" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{BCBDA6F6-5FDB-468A-89EC-DA9079E79AE5}">
+    <text>Title for all slides inside template</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2022-06-16T13:47:05.22" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{BFBC4FFA-3327-4B29-8F94-D9AD839F01C5}">
+    <text>Subtitle or small phrase describing the NPI</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2022-06-16T13:47:40.00" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{B583804B-0F09-40F7-BAF7-CB008A4039C4}">
+    <text>Small introduction on NPI</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2022-06-16T13:49:07.14" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{B415D63C-7C5A-4D4D-A934-C926BA023579}">
+    <text>Logo of supplier.
+All in lowercase.
+i.e. supplier-logo.svg
+Format availables: *.svg</text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2022-06-16T13:49:22.24" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{525B5A85-25A3-4CB4-B13A-9896B58DDAC0}">
+    <text>Advantages or benefits of NPI</text>
+  </threadedComment>
+  <threadedComment ref="L1" dT="2022-06-16T13:50:14.73" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{E11F243E-C009-4DD5-BF74-70BA54144960}">
+    <text>Main functionality of the NPI</text>
+  </threadedComment>
+  <threadedComment ref="M1" dT="2022-06-16T13:51:14.14" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{5F492232-0C70-44EA-B461-A8DC84F625F6}">
+    <text>Selects the main figure of the template
+Value on cell has to be name of image + file format.
+i.e. image.png
+File formats available *.png, *.jpg, *.svg</text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2022-06-16T13:51:30.71" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{E0BF33BA-391F-41B6-B7E3-3493B6C32067}">
+    <text>Selects the sub figure 1 of the template
+Value on cell has to be name of image + file format.
+i.e. image.png
+File formats available *.png, *.jpg, *.svg</text>
+  </threadedComment>
+  <threadedComment ref="O1" dT="2022-06-16T13:51:44.59" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{BABCF6AF-C73B-4352-99CE-833E8821F5E3}">
+    <text>Selects the sub figure 2 of the template
+Value on cell has to be name of image + file format.
+i.e. image.png
+File formats available *.png, *.jpg, *.svg</text>
+  </threadedComment>
+  <threadedComment ref="P1" dT="2022-06-16T13:52:02.42" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{6E5245F0-A0B4-47DF-9367-E45DA52543A1}">
+    <text>First hyperlink regarding NPI</text>
+  </threadedComment>
+  <threadedComment ref="Q1" dT="2022-06-16T13:52:23.88" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{37F4E663-1072-411F-9E46-B3EA20AE7A83}">
+    <text>Text that will go on top of first hyperlink in template</text>
+  </threadedComment>
+  <threadedComment ref="R1" dT="2022-06-16T13:53:37.99" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{BF9CBB98-4DD8-47AB-BF5A-643DD7B05DCB}">
+    <text>Second  hyperlink regarding NPI</text>
+  </threadedComment>
+  <threadedComment ref="S1" dT="2022-06-16T13:53:58.27" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{5188F248-C55E-4E9C-9FD0-872824093507}">
+    <text>Text that will go on top of second hyperlink in template</text>
+  </threadedComment>
+  <threadedComment ref="T1" dT="2022-06-16T13:53:47.47" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{FF6AC938-1EAC-44C5-AEB7-FFD307DF1D2A}">
+    <text>Third  hyperlink regarding NPI</text>
+  </threadedComment>
+  <threadedComment ref="U1" dT="2022-06-16T13:54:06.08" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{5748038D-9E13-446A-A848-ED4F5448F3F2}">
+    <text>Text that will go on top of third hyperlink in template</text>
+  </threadedComment>
+  <threadedComment ref="V1" dT="2022-06-16T13:54:24.56" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{69855F5D-9FBE-4989-94D7-CE69F041B6F6}">
+    <text>Applications that can be implemented with this NPI</text>
+  </threadedComment>
+  <threadedComment ref="W1" dT="2022-06-16T13:55:08.80" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{FD828F39-7ED8-4A15-B4A2-23A71925CB28}">
+    <text>Selects the application figure on the template
+Value on cell has to be name of image + file format.
+i.e. image.png
+File formats available *.png, *.jpg, *.svg</text>
+  </threadedComment>
+  <threadedComment ref="X1" dT="2022-06-16T13:55:17.48" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{5B989B68-BD62-4293-B35A-B842D92AA3DF}">
+    <text>Selects the application figure on the template
+Value on cell has to be name of image + file format.
+i.e. image.png
+File formats available *.png, *.jpg, *.svg</text>
+  </threadedComment>
+  <threadedComment ref="Y1" dT="2022-06-16T13:55:23.74" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{705802AF-8794-4CD3-8751-51AF750B2962}">
+    <text>Selects the application figure on the template
+Value on cell has to be name of image + file format.
+i.e. image.png
+File formats available *.png, *.jpg, *.svg</text>
+  </threadedComment>
+  <threadedComment ref="Z1" dT="2022-06-16T13:55:27.09" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{58598B64-3539-4092-B321-1D15B8BBE6B3}">
+    <text>Selects the application figure on the template
+Value on cell has to be name of image + file format.
+i.e. image.png
+File formats available *.png, *.jpg, *.svg</text>
+  </threadedComment>
+  <threadedComment ref="AA1" dT="2022-06-16T13:56:16.64" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{786AC876-8E27-4431-9428-CD58BC87C546}">
+    <text>Selects if there is going to be a table or not regarding Part Numbers
+Values available: Y, N</text>
+  </threadedComment>
+  <threadedComment ref="AB1" dT="2022-06-16T13:56:52.73" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{C4824800-0B1F-4A80-BEE4-F0409E8D1520}">
+    <text>First column of Part Number Table in template.
+Fill it using rows from 3 and beyond</text>
+  </threadedComment>
+  <threadedComment ref="AC1" dT="2022-06-16T14:00:12.29" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{EC269B3D-010F-491D-B221-3D0AD79E2839}">
+    <text>Embedded Hyperlink in first column text.
+Fill it using rows from 4 and beyond. If a blank space is needed, insert characters in EmptySpace cell (Z4)</text>
+  </threadedComment>
+  <threadedComment ref="AD1" dT="2022-06-16T13:57:11.70" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{BB5424C7-C0D6-4FCC-9D6A-AD8FDA640A15}">
+    <text>Second column of Part Number Table in template.
+Fill it using rows from 3 and beyond</text>
+  </threadedComment>
+  <threadedComment ref="AE1" dT="2022-06-16T14:00:46.41" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{3DF874D2-3055-4C24-A62D-31AAA9874EF6}">
+    <text>Third column of Part Number Table in template.
+Fill it using rows from 3 and beyond</text>
+  </threadedComment>
+  <threadedComment ref="AF1" dT="2022-06-16T14:00:35.30" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{EAD530D6-F3BC-429C-BAE4-D0BE0EBBF07E}">
+    <text>Embedded Hyperlink in third column text.
+Fill it using rows from 4 and beyond. If a blank space is needed, insert characters in EmptySpace cell (Z4)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="51.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" customWidth="1"/>
-    <col min="12" max="12" width="50.85546875" customWidth="1"/>
-    <col min="13" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" customWidth="1"/>
-    <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" customWidth="1"/>
-    <col min="18" max="18" width="24.5703125" customWidth="1"/>
-    <col min="19" max="22" width="23" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="3"/>
+    <col min="2" max="5" width="26.28515625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="51.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="46.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="50.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" style="3" customWidth="1"/>
+    <col min="16" max="17" width="18.5703125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="22" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="24.5703125" style="3" customWidth="1"/>
+    <col min="26" max="30" width="23" style="3" customWidth="1"/>
+    <col min="31" max="31" width="20.28515625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="22.140625" style="3" customWidth="1"/>
+    <col min="33" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="6" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>99</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
+      <c r="AA2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="1" t="str">
+        <f>_xlfn.TEXTJOIN($Z$3, TRUE, AB3:AB8)</f>
+        <v>FamilyOw-SAM1Ow-SAM2</v>
+      </c>
+      <c r="AC2" s="1" t="str">
+        <f t="shared" ref="AC2:AF2" si="0">_xlfn.TEXTJOIN($Z$3, TRUE, AC3:AC8)</f>
+        <v/>
+      </c>
+      <c r="AD2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Main FunctionOw-Micro 1Ow-Micro 2</v>
+      </c>
+      <c r="AE2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DatasheetOw-LinkOw-Link</v>
+      </c>
+      <c r="AF2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
-    <row r="2" spans="1:22" s="5" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>41</v>
+    <row r="3" spans="1:32" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="Y3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" s="9"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF5" s="9"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA7" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA8" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{3B2630FD-9972-43AF-9B1A-FDCEF029E045}"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{3B2630FD-9972-43AF-9B1A-FDCEF029E045}"/>
+    <hyperlink ref="R2" r:id="rId2" xr:uid="{B0A86015-DCE8-459A-AA93-579810BAF360}"/>
+    <hyperlink ref="T2" r:id="rId3" xr:uid="{F878568C-A4BE-4206-BC02-25D18BC4C4B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/NPI_TEMPLATE_FILL_Test.xlsx
+++ b/NPI_TEMPLATE_FILL_Test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arrowelectronics-my.sharepoint.com/personal/danielarmando_aguirre_arrow_com/Documents/Documents/Arrow/Internal Jobs/NPI_Gen/NPI Generator Tool v15/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{2AFB9A13-157B-402D-BF4B-356A49DF65A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6193BC42-D2A1-4FFC-A278-EFDBED7EAE2B}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{2AFB9A13-157B-402D-BF4B-356A49DF65A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{719CB885-E89B-46DC-89A6-F28746370E35}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE_1_FILL" sheetId="1" r:id="rId1"/>
+    <sheet name="CONST" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -369,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>#</t>
   </si>
@@ -437,46 +438,9 @@
     <t>i3.png</t>
   </si>
   <si>
-    <t>https://www.arrow.com/es-mx/products/tle9012dqu/infineon-technologies-ag</t>
-  </si>
-  <si>
     <t>GeneralDescriptionText</t>
   </si>
   <si>
-    <t>main.png</t>
-  </si>
-  <si>
-    <t>Micron</t>
-  </si>
-  <si>
-    <t>SSD with NVMe</t>
-  </si>
-  <si>
-    <t>The World's Most Advanced 176-Layer NAND Data Center SSD</t>
-  </si>
-  <si>
-    <t>The Micron® 7450 SSD with NVMe® enables a wide variety of workloads for flexible deployment in hyperscale, cloud, data center, OEM and system  integrator designs.</t>
-  </si>
-  <si>
-    <t>176-layer NAND
-2ms and below QoS latency
-Capacity, form factor and security options fit a wide variety of data center workloads
-Multi-faceted protection for a wide variety of threats</t>
-  </si>
-  <si>
-    <t>Designed as a mainstream solution, the 7450 SSD balances performance and density. Our offering includes a PCIe Gen4, M.2, 22 x 80mm with powerloss protection and a 7.68TB E1.S that delivers industry-leading capacity.</t>
-  </si>
-  <si>
-    <t>Hyperscale cloud/data center
-Server boot use.</t>
-  </si>
-  <si>
-    <t>7450 SSD</t>
-  </si>
-  <si>
-    <t>infineon-logo.svg</t>
-  </si>
-  <si>
     <t>PageLink1Mask</t>
   </si>
   <si>
@@ -495,15 +459,6 @@
     <t>PageLink3Mask</t>
   </si>
   <si>
-    <t>HyperlinkMask1</t>
-  </si>
-  <si>
-    <t>HyperlinkMask2</t>
-  </si>
-  <si>
-    <t>HyperlinkMask3</t>
-  </si>
-  <si>
     <t>OPNTableColumn1</t>
   </si>
   <si>
@@ -522,12 +477,6 @@
     <t>SubFigure2Image</t>
   </si>
   <si>
-    <t>main1.png</t>
-  </si>
-  <si>
-    <t>0.jpg</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -555,47 +504,104 @@
     <t>Row 5</t>
   </si>
   <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>OPNTableColumn1Link</t>
+  </si>
+  <si>
+    <t>Delimiter</t>
+  </si>
+  <si>
+    <t>Ow-</t>
+  </si>
+  <si>
+    <t>EmptySpace</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>DSC612/613</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>Industry’s Smallest MEMS Clock Generator With up to 3 Outputs</t>
+  </si>
+  <si>
+    <t>Multiple Outputs MEMS Clock Generator</t>
+  </si>
+  <si>
+    <t>The DSC612/613 family of devices is the industry’s smallest MEMS clock generator that can replace up to three crystals and oscillators on a board, reducing timing component board space by up to 80 percent.</t>
+  </si>
+  <si>
+    <t>microchip-logo.svg</t>
+  </si>
+  <si>
+    <t>Multi-output with no need for an external crystal: 2 for DSC612, 3 for DSC613.
+Wide frequency range: 2kHz to 100MHz.
+Wide supply voltage range: 1.71V to 3.63V for Vdd.
+Wide temperature range: -40°C to 125°C.</t>
+  </si>
+  <si>
+    <t>You can configure output frequency and control pin function, package size, PPM accuracy and temperature range. Up to three output drive strengths are available based on the custom board loading condition. Spread-spectrum clocks are also available for EMI reduction.</t>
+  </si>
+  <si>
+    <t>DSC613.png</t>
+  </si>
+  <si>
+    <t>DSC613-Arch.png</t>
+  </si>
+  <si>
+    <t>https://ww1.microchip.com/downloads/en/DeviceDoc/DSC612%20613%20Sell%20Sheet.pdf</t>
+  </si>
+  <si>
+    <t>IoT Gateways/smart speakers
+Automotive and industrial applications
+Drones
+POS systems</t>
+  </si>
+  <si>
+    <t>DSC612</t>
+  </si>
+  <si>
+    <t>DSC613</t>
+  </si>
+  <si>
+    <t>https://www.arrow.com/es-mx/products/dsc613ra2a-0106/microchip-technology</t>
+  </si>
+  <si>
     <t>Family</t>
   </si>
   <si>
-    <t>SAM1</t>
-  </si>
-  <si>
-    <t>SAM2</t>
-  </si>
-  <si>
-    <t>Main Function</t>
-  </si>
-  <si>
-    <t>Micro 1</t>
-  </si>
-  <si>
-    <t>Micro 2</t>
-  </si>
-  <si>
-    <t>Datasheet</t>
-  </si>
-  <si>
-    <t>OPNTableColumn1Link</t>
-  </si>
-  <si>
-    <t>Delimiter</t>
-  </si>
-  <si>
-    <t>Ow-</t>
-  </si>
-  <si>
-    <t>EmptySpace</t>
-  </si>
-  <si>
-    <t>&lt;&gt;</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>https://www.arrow.com/es-mx/products/dsc612rl3a-010k/microchip-technology</t>
+  </si>
+  <si>
+    <t>2-Output Any-Rate MEMS Clock Generator</t>
+  </si>
+  <si>
+    <t>3-Output Low Power MEMS Clock Generator</t>
+  </si>
+  <si>
+    <t>https://ww1.microchip.com/downloads/aemDocuments/documents/OTH/ProductDocuments/DataSheets/DSC612-Two-Output-Ultra-Low-Power-MEMS-Clock-Generator-DS20006023A.pdf</t>
+  </si>
+  <si>
+    <t>https://ww1.microchip.com/downloads/aemDocuments/documents/OTH/ProductDocuments/DataSheets/DSC613-Three-Output-Low-Power-MEMS-Clock-Generator-DS20006024A.pdf</t>
+  </si>
+  <si>
+    <t>2.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -628,12 +634,6 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -679,7 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -702,12 +702,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1236,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -1308,31 +1305,31 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>12</v>
@@ -1353,19 +1350,19 @@
         <v>17</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="6" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -1379,59 +1376,51 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="O2" s="1"/>
-      <c r="P2" s="5" t="s">
-        <v>22</v>
+      <c r="P2" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>18</v>
@@ -1446,113 +1435,167 @@
         <v>21</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AB2" s="1" t="str">
-        <f>_xlfn.TEXTJOIN($Z$3, TRUE, AB3:AB8)</f>
-        <v>FamilyOw-SAM1Ow-SAM2</v>
+        <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AB3:AB17)</f>
+        <v>FamilyOw-DSC612Ow-DSC613</v>
       </c>
       <c r="AC2" s="1" t="str">
-        <f t="shared" ref="AC2:AF2" si="0">_xlfn.TEXTJOIN($Z$3, TRUE, AC3:AC8)</f>
-        <v/>
+        <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AC4:AC17)</f>
+        <v>https://www.arrow.com/es-mx/products/dsc612rl3a-010k/microchip-technologyOw-https://www.arrow.com/es-mx/products/dsc613ra2a-0106/microchip-technology</v>
       </c>
       <c r="AD2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Main FunctionOw-Micro 1Ow-Micro 2</v>
+        <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AD3:AD17)</f>
+        <v>DescriptionOw-2-Output Any-Rate MEMS Clock GeneratorOw-3-Output Low Power MEMS Clock Generator</v>
       </c>
       <c r="AE2" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AE3:AE17)</f>
         <v>DatasheetOw-LinkOw-Link</v>
       </c>
       <c r="AF2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AF4:AF17)</f>
+        <v>https://ww1.microchip.com/downloads/aemDocuments/documents/OTH/ProductDocuments/DataSheets/DSC612-Two-Output-Ultra-Low-Power-MEMS-Clock-Generator-DS20006023A.pdfOw-https://ww1.microchip.com/downloads/aemDocuments/documents/OTH/ProductDocuments/DataSheets/DSC613-Three-Output-Low-Power-MEMS-Clock-Generator-DS20006024A.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="20.25" x14ac:dyDescent="0.35">
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="Y3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AE4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="AA5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AA3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="Y4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF4" s="9"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AA5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF5" s="9"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AA6" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AF6" s="8"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AA7" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AF7" s="8"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AA8" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AF8" s="8"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF9" s="8"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF10" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="P2" r:id="rId1" xr:uid="{3B2630FD-9972-43AF-9B1A-FDCEF029E045}"/>
-    <hyperlink ref="R2" r:id="rId2" xr:uid="{B0A86015-DCE8-459A-AA93-579810BAF360}"/>
-    <hyperlink ref="T2" r:id="rId3" xr:uid="{F878568C-A4BE-4206-BC02-25D18BC4C4B3}"/>
+    <hyperlink ref="AC5" r:id="rId2" xr:uid="{B016D08C-9C67-4737-89A7-F46A8204F9DA}"/>
+    <hyperlink ref="AC4" r:id="rId3" xr:uid="{1DBDCD1D-21BB-420A-A086-047C831A79C5}"/>
+    <hyperlink ref="AF4" r:id="rId4" xr:uid="{055C13D4-A915-4AFB-A913-E841A3EFB73A}"/>
+    <hyperlink ref="AF5" r:id="rId5" xr:uid="{255EA855-8D7B-4F35-92E8-C0DDAB9EF031}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F77A72-50AF-47F8-AA56-54D688DFFB16}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NPI_TEMPLATE_FILL_Test.xlsx
+++ b/NPI_TEMPLATE_FILL_Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arrowelectronics-my.sharepoint.com/personal/danielarmando_aguirre_arrow_com/Documents/Documents/Arrow/Internal Jobs/NPI_Gen/NPI Generator Tool v15/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{2AFB9A13-157B-402D-BF4B-356A49DF65A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{719CB885-E89B-46DC-89A6-F28746370E35}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="13_ncr:1_{2AFB9A13-157B-402D-BF4B-356A49DF65A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{612414C0-259D-4ECB-BBAE-163109CB7ACA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE_1_FILL" sheetId="1" r:id="rId1"/>
@@ -70,6 +70,7 @@
     <author>tc={BB5424C7-C0D6-4FCC-9D6A-AD8FDA640A15}</author>
     <author>tc={3DF874D2-3055-4C24-A62D-31AAA9874EF6}</author>
     <author>tc={EAD530D6-F3BC-429C-BAE4-D0BE0EBBF07E}</author>
+    <author>tc={B96D5787-065B-421D-92E2-63E76F7C2EE7}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2CFFBEB8-D65D-416F-A0BE-A7BFDEC7D6E9}">
@@ -365,12 +366,21 @@
 Fill it using rows from 4 and beyond. If a blank space is needed, insert characters in EmptySpace cell (Z4)</t>
       </text>
     </comment>
+    <comment ref="AG1" authorId="32" shapeId="0" xr:uid="{B96D5787-065B-421D-92E2-63E76F7C2EE7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Embedded Hyperlink in third column text.
+Fill it using rows from 4 and beyond. If a blank space is needed, insert characters in EmptySpace cell (Z4)</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>#</t>
   </si>
@@ -549,9 +559,6 @@
     <t>You can configure output frequency and control pin function, package size, PPM accuracy and temperature range. Up to three output drive strengths are available based on the custom board loading condition. Spread-spectrum clocks are also available for EMI reduction.</t>
   </si>
   <si>
-    <t>DSC613.png</t>
-  </si>
-  <si>
     <t>DSC613-Arch.png</t>
   </si>
   <si>
@@ -595,13 +602,31 @@
   </si>
   <si>
     <t>2.jpg</t>
+  </si>
+  <si>
+    <t>Product Brief</t>
+  </si>
+  <si>
+    <t>DSC613.PNG</t>
+  </si>
+  <si>
+    <t>LT (wk)</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>OPNTableColumn4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -634,6 +659,12 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -679,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -705,6 +736,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1228,15 +1262,19 @@
     <text>Embedded Hyperlink in third column text.
 Fill it using rows from 4 and beyond. If a blank space is needed, insert characters in EmptySpace cell (Z4)</text>
   </threadedComment>
+  <threadedComment ref="AG1" dT="2022-06-16T14:00:35.30" personId="{BC06CCFA-F486-448E-AEB8-558C1A2CACF3}" id="{B96D5787-065B-421D-92E2-63E76F7C2EE7}">
+    <text>Embedded Hyperlink in third column text.
+Fill it using rows from 4 and beyond. If a blank space is needed, insert characters in EmptySpace cell (Z4)</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,11 +1301,11 @@
     <col min="25" max="25" width="24.5703125" style="3" customWidth="1"/>
     <col min="26" max="30" width="23" style="3" customWidth="1"/>
     <col min="31" max="31" width="20.28515625" style="3" customWidth="1"/>
-    <col min="32" max="32" width="22.140625" style="3" customWidth="1"/>
-    <col min="33" max="16384" width="8.7109375" style="3"/>
+    <col min="32" max="33" width="22.140625" style="3" customWidth="1"/>
+    <col min="34" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1364,8 +1402,11 @@
       <c r="AF1" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AG1" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" s="6" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="6" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1376,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>50</v>
@@ -1403,24 +1444,28 @@
         <v>57</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="T2" s="5"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>18</v>
@@ -1457,8 +1502,12 @@
         <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AF4:AF17)</f>
         <v>https://ww1.microchip.com/downloads/aemDocuments/documents/OTH/ProductDocuments/DataSheets/DSC612-Two-Output-Ultra-Low-Power-MEMS-Clock-Generator-DS20006023A.pdfOw-https://ww1.microchip.com/downloads/aemDocuments/documents/OTH/ProductDocuments/DataSheets/DSC613-Three-Output-Low-Power-MEMS-Clock-Generator-DS20006024A.pdf</v>
       </c>
+      <c r="AG2" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AG3:AG17)</f>
+        <v>LT (wk)Ow-12-15Ow-52</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="20.25" x14ac:dyDescent="0.35">
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="Y3" s="3" t="s">
@@ -1471,16 +1520,19 @@
         <v>38</v>
       </c>
       <c r="AB3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="AE3" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="AG3" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="Y4" s="3" t="s">
         <v>48</v>
       </c>
@@ -1491,64 +1543,75 @@
         <v>39</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD4" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="AE4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="AA5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AB5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AC5" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="AD5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="AF5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AA6" s="3" t="s">
         <v>41</v>
       </c>
       <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AA7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AA8" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1558,10 +1621,11 @@
     <hyperlink ref="AC4" r:id="rId3" xr:uid="{1DBDCD1D-21BB-420A-A086-047C831A79C5}"/>
     <hyperlink ref="AF4" r:id="rId4" xr:uid="{055C13D4-A915-4AFB-A913-E841A3EFB73A}"/>
     <hyperlink ref="AF5" r:id="rId5" xr:uid="{255EA855-8D7B-4F35-92E8-C0DDAB9EF031}"/>
+    <hyperlink ref="R2" r:id="rId6" xr:uid="{08AE1B7B-1AE5-41F2-87F0-70A93CF49B4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1569,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F77A72-50AF-47F8-AA56-54D688DFFB16}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/NPI_TEMPLATE_FILL_Test.xlsx
+++ b/NPI_TEMPLATE_FILL_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arrowelectronics-my.sharepoint.com/personal/danielarmando_aguirre_arrow_com/Documents/Documents/Arrow/Internal Jobs/NPI_Gen/NPI Generator Tool v15/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="13_ncr:1_{2AFB9A13-157B-402D-BF4B-356A49DF65A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{612414C0-259D-4ECB-BBAE-163109CB7ACA}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="13_ncr:1_{2AFB9A13-157B-402D-BF4B-356A49DF65A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E97920AB-1B1A-4EAE-A7D8-D2007D4B6E0D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16200" yWindow="0" windowWidth="16200" windowHeight="14100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE_1_FILL" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>#</t>
   </si>
@@ -490,9 +490,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>OPNTableColumn3Link</t>
   </si>
   <si>
@@ -532,101 +529,98 @@
     <t>&lt;&gt;</t>
   </si>
   <si>
-    <t>DSC612/613</t>
-  </si>
-  <si>
-    <t>Microchip</t>
-  </si>
-  <si>
-    <t>Industry’s Smallest MEMS Clock Generator With up to 3 Outputs</t>
-  </si>
-  <si>
-    <t>Multiple Outputs MEMS Clock Generator</t>
-  </si>
-  <si>
-    <t>The DSC612/613 family of devices is the industry’s smallest MEMS clock generator that can replace up to three crystals and oscillators on a board, reducing timing component board space by up to 80 percent.</t>
-  </si>
-  <si>
-    <t>microchip-logo.svg</t>
-  </si>
-  <si>
-    <t>Multi-output with no need for an external crystal: 2 for DSC612, 3 for DSC613.
-Wide frequency range: 2kHz to 100MHz.
-Wide supply voltage range: 1.71V to 3.63V for Vdd.
-Wide temperature range: -40°C to 125°C.</t>
-  </si>
-  <si>
-    <t>You can configure output frequency and control pin function, package size, PPM accuracy and temperature range. Up to three output drive strengths are available based on the custom board loading condition. Spread-spectrum clocks are also available for EMI reduction.</t>
-  </si>
-  <si>
-    <t>DSC613-Arch.png</t>
-  </si>
-  <si>
-    <t>https://ww1.microchip.com/downloads/en/DeviceDoc/DSC612%20613%20Sell%20Sheet.pdf</t>
-  </si>
-  <si>
-    <t>IoT Gateways/smart speakers
-Automotive and industrial applications
-Drones
-POS systems</t>
-  </si>
-  <si>
-    <t>DSC612</t>
-  </si>
-  <si>
-    <t>DSC613</t>
-  </si>
-  <si>
-    <t>https://www.arrow.com/es-mx/products/dsc613ra2a-0106/microchip-technology</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>https://www.arrow.com/es-mx/products/dsc612rl3a-010k/microchip-technology</t>
-  </si>
-  <si>
-    <t>2-Output Any-Rate MEMS Clock Generator</t>
-  </si>
-  <si>
-    <t>3-Output Low Power MEMS Clock Generator</t>
-  </si>
-  <si>
-    <t>https://ww1.microchip.com/downloads/aemDocuments/documents/OTH/ProductDocuments/DataSheets/DSC612-Two-Output-Ultra-Low-Power-MEMS-Clock-Generator-DS20006023A.pdf</t>
-  </si>
-  <si>
-    <t>https://ww1.microchip.com/downloads/aemDocuments/documents/OTH/ProductDocuments/DataSheets/DSC613-Three-Output-Low-Power-MEMS-Clock-Generator-DS20006024A.pdf</t>
-  </si>
-  <si>
-    <t>2.jpg</t>
+    <t>LT (wk)</t>
+  </si>
+  <si>
+    <t>OPNTableColumn4</t>
   </si>
   <si>
     <t>Product Brief</t>
   </si>
   <si>
-    <t>DSC613.PNG</t>
-  </si>
-  <si>
-    <t>LT (wk)</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>OPNTableColumn4</t>
+    <t>ASM330LHHX</t>
+  </si>
+  <si>
+    <t>Automotive 6-axis inertial module with embedded machine learning</t>
+  </si>
+  <si>
+    <t>st-logo.svg</t>
+  </si>
+  <si>
+    <t>ASM330.png</t>
+  </si>
+  <si>
+    <t>ASM330-Arch.png</t>
+  </si>
+  <si>
+    <t>https://www.st.com/resource/en/datasheet/asm330lhhx.pdf</t>
+  </si>
+  <si>
+    <t>https://www.st.com/resource/en/brochure/brmemsauto.pdf</t>
+  </si>
+  <si>
+    <t>Order Code</t>
+  </si>
+  <si>
+    <t>ASM330LHHXTR</t>
+  </si>
+  <si>
+    <t>Automotive 6-axis inertial module with embedded machine learning core and dual operating modes</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>LGA-14L</t>
+  </si>
+  <si>
+    <t>https://www.st.com/en/mems-and-sensors/asm330lhhx.html</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>9.jpg</t>
+  </si>
+  <si>
+    <t>- AEC-Q100 qualified
+- Extended temperature range from -40 to +105 °C
+- Android compliant
+- Dual operating modes: high-performance and low-power mode
+- I²C, MIPI I3C, and SPI serial interfaces
+- Machine learning core</t>
+  </si>
+  <si>
+    <t>- Vehicle-to-everything (V2X)
+- Telematics
+- Anti-theft systems
+- Motion-activated Functions
+- Vibration monitoring and compensation.</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>System-in-package featuring a __3-axis digital accelerometer__ and a __3-axis digital gyroscope__ with an extended temperature range up to +105 °C and designed to __address automotive non-safety applications__.</t>
+  </si>
+  <si>
+    <t>The ASM330LHHX has a __full-scale acceleration range of ±2/±4/±8/±16 g__ and a __wide angular rate range of ±125/±250/±500/±1000/±2000/±4000 dps__ that enables its usage in a broad range of automotive applications.</t>
+  </si>
+  <si>
+    <t>EmailText</t>
+  </si>
+  <si>
+    <t>The design and calibration for __outstanding accuracy__, together with __proven mechanical robustness__ make the ASM330LHH the right choice for the implementation in __Automotive reliable products__ as tracking in advanced vehicle navigation and telematics applications.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -659,12 +653,6 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -710,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -738,6 +726,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1271,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,11 +1292,11 @@
     <col min="25" max="25" width="24.5703125" style="3" customWidth="1"/>
     <col min="26" max="30" width="23" style="3" customWidth="1"/>
     <col min="31" max="31" width="20.28515625" style="3" customWidth="1"/>
-    <col min="32" max="33" width="22.140625" style="3" customWidth="1"/>
-    <col min="34" max="16384" width="8.7109375" style="3"/>
+    <col min="32" max="34" width="22.140625" style="3" customWidth="1"/>
+    <col min="35" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1382,7 @@
         <v>29</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>30</v>
@@ -1400,13 +1391,16 @@
         <v>31</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="6" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="6" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1417,55 +1411,53 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="9" t="s">
         <v>59</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="1" t="s">
-        <v>60</v>
+      <c r="V2" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>18</v>
@@ -1484,148 +1476,138 @@
       </c>
       <c r="AB2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AB3:AB17)</f>
-        <v>FamilyOw-DSC612Ow-DSC613</v>
+        <v>Order CodeOw-ASM330LHHXTR</v>
       </c>
       <c r="AC2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AC4:AC17)</f>
-        <v>https://www.arrow.com/es-mx/products/dsc612rl3a-010k/microchip-technologyOw-https://www.arrow.com/es-mx/products/dsc613ra2a-0106/microchip-technology</v>
+        <v>https://www.st.com/en/mems-and-sensors/asm330lhhx.html</v>
       </c>
       <c r="AD2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AD3:AD17)</f>
-        <v>DescriptionOw-2-Output Any-Rate MEMS Clock GeneratorOw-3-Output Low Power MEMS Clock Generator</v>
+        <v>DescriptionOw-Automotive 6-axis inertial module with embedded machine learning core and dual operating modes</v>
       </c>
       <c r="AE2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AE3:AE17)</f>
-        <v>DatasheetOw-LinkOw-Link</v>
+        <v>PackageOw-LGA-14L</v>
       </c>
       <c r="AF2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AF4:AF17)</f>
-        <v>https://ww1.microchip.com/downloads/aemDocuments/documents/OTH/ProductDocuments/DataSheets/DSC612-Two-Output-Ultra-Low-Power-MEMS-Clock-Generator-DS20006023A.pdfOw-https://ww1.microchip.com/downloads/aemDocuments/documents/OTH/ProductDocuments/DataSheets/DSC613-Three-Output-Low-Power-MEMS-Clock-Generator-DS20006024A.pdf</v>
+        <v/>
       </c>
       <c r="AG2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AG3:AG17)</f>
-        <v>LT (wk)Ow-12-15Ow-52</v>
+        <v>LT (wk)Ow-34</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" ht="20.25" x14ac:dyDescent="0.35">
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="Y3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="75" x14ac:dyDescent="0.25">
+      <c r="Y4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="Z4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="Y4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>61</v>
       </c>
       <c r="AC4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AD4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG4" s="11" t="s">
-        <v>75</v>
-      </c>
+      <c r="AH4" s="11"/>
     </row>
-    <row r="5" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AA5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AA6" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AA6" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AA7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AA8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{3B2630FD-9972-43AF-9B1A-FDCEF029E045}"/>
-    <hyperlink ref="AC5" r:id="rId2" xr:uid="{B016D08C-9C67-4737-89A7-F46A8204F9DA}"/>
-    <hyperlink ref="AC4" r:id="rId3" xr:uid="{1DBDCD1D-21BB-420A-A086-047C831A79C5}"/>
-    <hyperlink ref="AF4" r:id="rId4" xr:uid="{055C13D4-A915-4AFB-A913-E841A3EFB73A}"/>
-    <hyperlink ref="AF5" r:id="rId5" xr:uid="{255EA855-8D7B-4F35-92E8-C0DDAB9EF031}"/>
-    <hyperlink ref="R2" r:id="rId6" xr:uid="{08AE1B7B-1AE5-41F2-87F0-70A93CF49B4D}"/>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{49BF887B-785D-49F2-9ACB-1298DBB2F046}"/>
+    <hyperlink ref="P2" r:id="rId2" xr:uid="{914A30B5-6AE5-45F2-BAD0-023E6E32EB24}"/>
+    <hyperlink ref="AC4" r:id="rId3" xr:uid="{8BF13535-36EA-46B7-B79E-46B227934574}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1645,18 +1627,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/NPI_TEMPLATE_FILL_Test.xlsx
+++ b/NPI_TEMPLATE_FILL_Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arrowelectronics-my.sharepoint.com/personal/danielarmando_aguirre_arrow_com/Documents/Documents/Arrow/Internal Jobs/NPI_Gen/NPI Generator Tool v15/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\146294\Downloads\NPI_Gen_tool_20220810\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="13_ncr:1_{2AFB9A13-157B-402D-BF4B-356A49DF65A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E97920AB-1B1A-4EAE-A7D8-D2007D4B6E0D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0362637B-0BEA-444C-BE9B-6994136AE787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="0" windowWidth="16200" windowHeight="14100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="9015" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE_1_FILL" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>#</t>
   </si>
@@ -545,9 +545,6 @@
   </si>
   <si>
     <t>Automotive 6-axis inertial module with embedded machine learning</t>
-  </si>
-  <si>
-    <t>st-logo.svg</t>
   </si>
   <si>
     <t>ASM330.png</t>
@@ -614,6 +611,15 @@
   </si>
   <si>
     <t>The design and calibration for __outstanding accuracy__, together with __proven mechanical robustness__ make the ASM330LHH the right choice for the implementation in __Automotive reliable products__ as tracking in advanced vehicle navigation and telematics applications.</t>
+  </si>
+  <si>
+    <t>st-logo.png</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>arrow123</t>
   </si>
 </sst>
 </file>
@@ -656,7 +662,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,6 +672,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -698,21 +716,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -722,13 +728,51 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1264,341 +1308,363 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="3"/>
-    <col min="2" max="5" width="26.28515625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="51.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="50.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" style="3" customWidth="1"/>
-    <col min="16" max="17" width="18.5703125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="22.42578125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="21.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="22" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.42578125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="24.5703125" style="3" customWidth="1"/>
-    <col min="26" max="30" width="23" style="3" customWidth="1"/>
-    <col min="31" max="31" width="20.28515625" style="3" customWidth="1"/>
-    <col min="32" max="34" width="22.140625" style="3" customWidth="1"/>
-    <col min="35" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="8.73046875" style="1"/>
+    <col min="2" max="5" width="26.265625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="14.265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.73046875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="51.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="46.73046875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="50.86328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.1328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.86328125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="18.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.86328125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="21.59765625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.3984375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="22.3984375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.73046875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="1" customWidth="1"/>
+    <col min="24" max="24" width="22.3984375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="24.59765625" style="1" customWidth="1"/>
+    <col min="26" max="30" width="23" style="1" customWidth="1"/>
+    <col min="31" max="31" width="20.265625" style="1" customWidth="1"/>
+    <col min="32" max="34" width="22.1328125" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>73</v>
+      <c r="AH1" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="6" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:34" s="2" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="9">
         <v>99</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="N2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="13"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="1" t="str">
+      <c r="AB2" s="7" t="str">
         <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AB3:AB17)</f>
         <v>Order CodeOw-ASM330LHHXTR</v>
       </c>
-      <c r="AC2" s="1" t="str">
+      <c r="AC2" s="7" t="str">
         <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AC4:AC17)</f>
         <v>https://www.st.com/en/mems-and-sensors/asm330lhhx.html</v>
       </c>
-      <c r="AD2" s="1" t="str">
+      <c r="AD2" s="7" t="str">
         <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AD3:AD17)</f>
         <v>DescriptionOw-Automotive 6-axis inertial module with embedded machine learning core and dual operating modes</v>
       </c>
-      <c r="AE2" s="1" t="str">
+      <c r="AE2" s="7" t="str">
         <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AE3:AE17)</f>
         <v>PackageOw-LGA-14L</v>
       </c>
-      <c r="AF2" s="1" t="str">
+      <c r="AF2" s="7" t="str">
         <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AF4:AF17)</f>
         <v/>
       </c>
-      <c r="AG2" s="1" t="str">
+      <c r="AG2" s="7" t="str">
         <f>_xlfn.TEXTJOIN(CONST!$B$1, TRUE, AG3:AG17)</f>
         <v>LT (wk)Ow-34</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>74</v>
+      <c r="AH2" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="Y3" s="3" t="s">
+    <row r="3" spans="1:34" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="Y3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AB3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG3" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="57" x14ac:dyDescent="0.45">
+      <c r="Y4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AD3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AC4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AG3" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH4" s="5"/>
     </row>
-    <row r="4" spans="1:34" ht="75" x14ac:dyDescent="0.25">
-      <c r="Y4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH4" s="11"/>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AA5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="5"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AA5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="Y6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="4"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AA6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AA7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="4"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AA7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AA8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="4"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AA8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="QOmSlAFQ+ZHjJioe2N5J6L007tj64+rkmBS+0oArgmBu3cgRbRhG/pDxe0qHdWRZaEUyPwdl4VGlbBWoLxyi2A==" saltValue="Kx34yFNXrdNcb1WNwmexZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" xr:uid="{49BF887B-785D-49F2-9ACB-1298DBB2F046}"/>
@@ -1619,29 +1685,30 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>